--- a/Hardware/BOM_2022-09-01.xlsx
+++ b/Hardware/BOM_2022-09-01.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board2_PCB2_2022-09-01" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board2_Schematic2_2022-09-0" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="352">
   <si>
     <t>No.</t>
   </si>
@@ -811,19 +811,16 @@
     <t>46</t>
   </si>
   <si>
-    <t>51Ω</t>
+    <t>2.1kΩ</t>
   </si>
   <si>
     <t>R23,R24,R25</t>
   </si>
   <si>
-    <t>ACPP0603 51R B</t>
-  </si>
-  <si>
-    <t>Ohmite</t>
-  </si>
-  <si>
-    <t>C2546694</t>
+    <t>0603WAF2101T5E</t>
+  </si>
+  <si>
+    <t>C22902</t>
   </si>
   <si>
     <t>47</t>
@@ -949,7 +946,7 @@
     <t>54</t>
   </si>
   <si>
-    <t>TJA1040T/CM,118</t>
+    <t>TJA1042T/1J</t>
   </si>
   <si>
     <t>U6</t>
@@ -961,7 +958,7 @@
     <t>NXP(恩智浦)</t>
   </si>
   <si>
-    <t>C6951</t>
+    <t>C53670</t>
   </si>
   <si>
     <t>55</t>
@@ -2950,10 +2947,10 @@
         <v>268</v>
       </c>
       <c r="H47" t="s">
+        <v>212</v>
+      </c>
+      <c r="I47" t="s">
         <v>269</v>
-      </c>
-      <c r="I47" t="s">
-        <v>270</v>
       </c>
       <c r="J47" t="s">
         <v>18</v>
@@ -2961,7 +2958,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -2970,7 +2967,7 @@
         <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E48" t="s">
         <v>203</v>
@@ -2979,13 +2976,13 @@
         <v>201</v>
       </c>
       <c r="G48" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" t="s">
         <v>273</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>274</v>
-      </c>
-      <c r="I48" t="s">
-        <v>275</v>
       </c>
       <c r="J48" t="s">
         <v>18</v>
@@ -2993,31 +2990,31 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
       <c r="C49" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" t="s">
         <v>277</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>278</v>
-      </c>
-      <c r="E49" t="s">
-        <v>279</v>
       </c>
       <c r="F49" t="s">
         <v>109</v>
       </c>
       <c r="G49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H49" t="s">
         <v>109</v>
       </c>
       <c r="I49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
@@ -3025,31 +3022,31 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
         <v>281</v>
       </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>282</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>283</v>
-      </c>
-      <c r="E50" t="s">
-        <v>284</v>
       </c>
       <c r="F50" t="s">
         <v>109</v>
       </c>
       <c r="G50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H50" t="s">
+        <v>284</v>
+      </c>
+      <c r="I50" t="s">
         <v>285</v>
-      </c>
-      <c r="I50" t="s">
-        <v>286</v>
       </c>
       <c r="J50" t="s">
         <v>18</v>
@@ -3057,31 +3054,31 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
         <v>287</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>288</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>289</v>
-      </c>
-      <c r="E51" t="s">
-        <v>290</v>
       </c>
       <c r="F51" t="s">
         <v>109</v>
       </c>
       <c r="G51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H51" t="s">
+        <v>290</v>
+      </c>
+      <c r="I51" t="s">
         <v>291</v>
-      </c>
-      <c r="I51" t="s">
-        <v>292</v>
       </c>
       <c r="J51" t="s">
         <v>18</v>
@@ -3089,31 +3086,31 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
         <v>293</v>
       </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>294</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>295</v>
-      </c>
-      <c r="E52" t="s">
-        <v>296</v>
       </c>
       <c r="F52" t="s">
         <v>109</v>
       </c>
       <c r="G52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H52" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52" t="s">
         <v>297</v>
-      </c>
-      <c r="I52" t="s">
-        <v>298</v>
       </c>
       <c r="J52" t="s">
         <v>18</v>
@@ -3121,31 +3118,31 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
         <v>299</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>300</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>301</v>
-      </c>
-      <c r="E53" t="s">
-        <v>302</v>
       </c>
       <c r="F53" t="s">
         <v>109</v>
       </c>
       <c r="G53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H53" t="s">
+        <v>302</v>
+      </c>
+      <c r="I53" t="s">
         <v>303</v>
-      </c>
-      <c r="I53" t="s">
-        <v>304</v>
       </c>
       <c r="J53" t="s">
         <v>18</v>
@@ -3153,31 +3150,31 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
       </c>
       <c r="C54" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" t="s">
         <v>306</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>307</v>
-      </c>
-      <c r="E54" t="s">
-        <v>308</v>
       </c>
       <c r="F54" t="s">
         <v>109</v>
       </c>
       <c r="G54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H54" t="s">
+        <v>308</v>
+      </c>
+      <c r="I54" t="s">
         <v>309</v>
-      </c>
-      <c r="I54" t="s">
-        <v>310</v>
       </c>
       <c r="J54" t="s">
         <v>18</v>
@@ -3185,31 +3182,31 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
         <v>311</v>
       </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>312</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>313</v>
-      </c>
-      <c r="E55" t="s">
-        <v>314</v>
       </c>
       <c r="F55" t="s">
         <v>109</v>
       </c>
       <c r="G55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H55" t="s">
+        <v>314</v>
+      </c>
+      <c r="I55" t="s">
         <v>315</v>
-      </c>
-      <c r="I55" t="s">
-        <v>316</v>
       </c>
       <c r="J55" t="s">
         <v>18</v>
@@ -3217,31 +3214,31 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
         <v>317</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>318</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>319</v>
-      </c>
-      <c r="E56" t="s">
-        <v>320</v>
       </c>
       <c r="F56" t="s">
         <v>109</v>
       </c>
       <c r="G56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H56" t="s">
+        <v>320</v>
+      </c>
+      <c r="I56" t="s">
         <v>321</v>
-      </c>
-      <c r="I56" t="s">
-        <v>322</v>
       </c>
       <c r="J56" t="s">
         <v>18</v>
@@ -3249,31 +3246,31 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>322</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
         <v>323</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>324</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>325</v>
-      </c>
-      <c r="E57" t="s">
-        <v>326</v>
       </c>
       <c r="F57" t="s">
         <v>109</v>
       </c>
       <c r="G57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H57" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57" t="s">
         <v>327</v>
-      </c>
-      <c r="I57" t="s">
-        <v>328</v>
       </c>
       <c r="J57" t="s">
         <v>18</v>
@@ -3281,31 +3278,31 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>328</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
         <v>329</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>330</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>331</v>
-      </c>
-      <c r="E58" t="s">
-        <v>332</v>
       </c>
       <c r="F58" t="s">
         <v>109</v>
       </c>
       <c r="G58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H58" t="s">
         <v>109</v>
       </c>
       <c r="I58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J58" t="s">
         <v>18</v>
@@ -3313,31 +3310,31 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>333</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
         <v>334</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>335</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>336</v>
-      </c>
-      <c r="E59" t="s">
-        <v>337</v>
       </c>
       <c r="F59" t="s">
         <v>109</v>
       </c>
       <c r="G59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H59" t="s">
+        <v>337</v>
+      </c>
+      <c r="I59" t="s">
         <v>338</v>
-      </c>
-      <c r="I59" t="s">
-        <v>339</v>
       </c>
       <c r="J59" t="s">
         <v>18</v>
@@ -3345,31 +3342,31 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>339</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
         <v>340</v>
       </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>341</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>342</v>
-      </c>
-      <c r="E60" t="s">
-        <v>343</v>
       </c>
       <c r="F60" t="s">
         <v>109</v>
       </c>
       <c r="G60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H60" t="s">
+        <v>343</v>
+      </c>
+      <c r="I60" t="s">
         <v>344</v>
-      </c>
-      <c r="I60" t="s">
-        <v>345</v>
       </c>
       <c r="J60" t="s">
         <v>18</v>
@@ -3377,31 +3374,31 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>345</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
         <v>346</v>
       </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>347</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>348</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>346</v>
+      </c>
+      <c r="G61" t="s">
         <v>349</v>
       </c>
-      <c r="F61" t="s">
-        <v>347</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>350</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>351</v>
-      </c>
-      <c r="I61" t="s">
-        <v>352</v>
       </c>
       <c r="J61" t="s">
         <v>18</v>
